--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Itgb2</t>
+  </si>
+  <si>
+    <t>Thy1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Itgb2</t>
-  </si>
-  <si>
-    <t>Thy1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>76.13138833333333</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="H2">
-        <v>228.394165</v>
+        <v>0.168572</v>
       </c>
       <c r="I2">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="J2">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.676256</v>
+        <v>1.943736666666666</v>
       </c>
       <c r="N2">
-        <v>5.028768</v>
+        <v>5.83121</v>
       </c>
       <c r="O2">
-        <v>0.01781408474712955</v>
+        <v>0.02216753253531823</v>
       </c>
       <c r="P2">
-        <v>0.01781408474712955</v>
+        <v>0.02216753253531823</v>
       </c>
       <c r="Q2">
-        <v>127.61569648208</v>
+        <v>0.1092198591244444</v>
       </c>
       <c r="R2">
-        <v>1148.54126833872</v>
+        <v>0.98297873212</v>
       </c>
       <c r="S2">
-        <v>0.01778751323056288</v>
+        <v>0.00871491608741832</v>
       </c>
       <c r="T2">
-        <v>0.01778751323056287</v>
+        <v>0.008714916087418319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>76.13138833333333</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="H3">
-        <v>228.394165</v>
+        <v>0.168572</v>
       </c>
       <c r="I3">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="J3">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.370334</v>
       </c>
       <c r="O3">
-        <v>0.6743745711107288</v>
+        <v>0.7236989531682786</v>
       </c>
       <c r="P3">
-        <v>0.6743745711107288</v>
+        <v>0.7236989531682786</v>
       </c>
       <c r="Q3">
-        <v>4831.052608300123</v>
+        <v>3.565678660338666</v>
       </c>
       <c r="R3">
-        <v>43479.4734747011</v>
+        <v>32.09110794304799</v>
       </c>
       <c r="S3">
-        <v>0.6733686729496514</v>
+        <v>0.2845141036498083</v>
       </c>
       <c r="T3">
-        <v>0.6733686729496514</v>
+        <v>0.2845141036498083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>76.13138833333333</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="H4">
-        <v>228.394165</v>
+        <v>0.168572</v>
       </c>
       <c r="I4">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="J4">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.96419433333334</v>
+        <v>22.28342866666667</v>
       </c>
       <c r="N4">
-        <v>86.892583</v>
+        <v>66.850286</v>
       </c>
       <c r="O4">
-        <v>0.3078113441421415</v>
+        <v>0.2541335142964031</v>
       </c>
       <c r="P4">
-        <v>0.3078113441421415</v>
+        <v>0.2541335142964031</v>
       </c>
       <c r="Q4">
-        <v>2205.084326553133</v>
+        <v>1.252120712399111</v>
       </c>
       <c r="R4">
-        <v>19845.75893897819</v>
+        <v>11.269086411592</v>
       </c>
       <c r="S4">
-        <v>0.3073522122615883</v>
+        <v>0.09990973278443337</v>
       </c>
       <c r="T4">
-        <v>0.3073522122615882</v>
+        <v>0.09990973278443335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +726,10 @@
         <v>0.260213</v>
       </c>
       <c r="I5">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="J5">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.676256</v>
+        <v>1.943736666666666</v>
       </c>
       <c r="N5">
-        <v>5.028768</v>
+        <v>5.83121</v>
       </c>
       <c r="O5">
-        <v>0.01781408474712955</v>
+        <v>0.02216753253531823</v>
       </c>
       <c r="P5">
-        <v>0.01781408474712955</v>
+        <v>0.02216753253531823</v>
       </c>
       <c r="Q5">
-        <v>0.145394534176</v>
+        <v>0.1685951830811111</v>
       </c>
       <c r="R5">
-        <v>1.308550807584</v>
+        <v>1.51735664773</v>
       </c>
       <c r="S5">
-        <v>2.026558857256471E-05</v>
+        <v>0.01345261644789991</v>
       </c>
       <c r="T5">
-        <v>2.02655885725647E-05</v>
+        <v>0.01345261644789991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +788,10 @@
         <v>0.260213</v>
       </c>
       <c r="I6">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="J6">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>190.370334</v>
       </c>
       <c r="O6">
-        <v>0.6743745711107288</v>
+        <v>0.7236989531682786</v>
       </c>
       <c r="P6">
-        <v>0.6743745711107288</v>
+        <v>0.7236989531682786</v>
       </c>
       <c r="Q6">
         <v>5.504092857904666</v>
@@ -818,10 +818,10 @@
         <v>49.536835721142</v>
       </c>
       <c r="S6">
-        <v>0.0007671793300597136</v>
+        <v>0.4391848495184703</v>
       </c>
       <c r="T6">
-        <v>0.0007671793300597136</v>
+        <v>0.4391848495184703</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,10 +850,10 @@
         <v>0.260213</v>
       </c>
       <c r="I7">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="J7">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.96419433333334</v>
+        <v>22.28342866666667</v>
       </c>
       <c r="N7">
-        <v>86.892583</v>
+        <v>66.850286</v>
       </c>
       <c r="O7">
-        <v>0.3078113441421415</v>
+        <v>0.2541335142964031</v>
       </c>
       <c r="P7">
-        <v>0.3078113441421415</v>
+        <v>0.2541335142964031</v>
       </c>
       <c r="Q7">
-        <v>2.512286633353222</v>
+        <v>1.932812607879778</v>
       </c>
       <c r="R7">
-        <v>22.610579700179</v>
+        <v>17.395313470918</v>
       </c>
       <c r="S7">
-        <v>0.0003501711228446869</v>
+        <v>0.1542237815119697</v>
       </c>
       <c r="T7">
-        <v>0.0003501711228446868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.080969</v>
-      </c>
-      <c r="I8">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="J8">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.676256</v>
-      </c>
-      <c r="N8">
-        <v>5.028768</v>
-      </c>
-      <c r="O8">
-        <v>0.01781408474712955</v>
-      </c>
-      <c r="P8">
-        <v>0.01781408474712955</v>
-      </c>
-      <c r="Q8">
-        <v>0.045241590688</v>
-      </c>
-      <c r="R8">
-        <v>0.407174316192</v>
-      </c>
-      <c r="S8">
-        <v>6.305927994112483E-06</v>
-      </c>
-      <c r="T8">
-        <v>6.305927994112482E-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.080969</v>
-      </c>
-      <c r="I9">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="J9">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>63.45677799999999</v>
-      </c>
-      <c r="N9">
-        <v>190.370334</v>
-      </c>
-      <c r="O9">
-        <v>0.6743745711107288</v>
-      </c>
-      <c r="P9">
-        <v>0.6743745711107288</v>
-      </c>
-      <c r="Q9">
-        <v>1.712677285960666</v>
-      </c>
-      <c r="R9">
-        <v>15.414095573646</v>
-      </c>
-      <c r="S9">
-        <v>0.0002387188310176853</v>
-      </c>
-      <c r="T9">
-        <v>0.0002387188310176853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.080969</v>
-      </c>
-      <c r="I10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="J10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>28.96419433333334</v>
-      </c>
-      <c r="N10">
-        <v>86.892583</v>
-      </c>
-      <c r="O10">
-        <v>0.3078113441421415</v>
-      </c>
-      <c r="P10">
-        <v>0.3078113441421415</v>
-      </c>
-      <c r="Q10">
-        <v>0.7817339503252222</v>
-      </c>
-      <c r="R10">
-        <v>7.035605552927001</v>
-      </c>
-      <c r="S10">
-        <v>0.0001089607577085367</v>
-      </c>
-      <c r="T10">
-        <v>0.0001089607577085366</v>
+        <v>0.1542237815119697</v>
       </c>
     </row>
   </sheetData>
